--- a/data/m_indust.xlsx
+++ b/data/m_indust.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidsimbandumwe/dev/cuny/r-works/series/tsxls/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC670DD-6006-B643-90A5-A50FF01FC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F31E09-DBC6-534A-8059-B617E6D1D4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19820" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="13120" windowHeight="6100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indust" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
